--- a/XSSystem/Doc/汽运销售出库单导入模板.xlsx
+++ b/XSSystem/Doc/汽运销售出库单导入模板.xlsx
@@ -230,8 +230,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -533,15 +534,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
@@ -604,6 +606,68 @@
       </c>
       <c r="T1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>123456</v>
+      </c>
+      <c r="B2">
+        <v>514</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43923</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
